--- a/feb-drugdependence/data/drug-aggregate.xlsx
+++ b/feb-drugdependence/data/drug-aggregate.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dataisbeautiful\feb-drugdependence\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{727ADB0C-9643-4777-84AE-AC8B17E5490E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D92A9C1-1F8E-4CD4-93AE-8C420F313A0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A0634668-6C1C-4301-8777-DCC079C9BAD8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{A0634668-6C1C-4301-8777-DCC079C9BAD8}"/>
   </bookViews>
   <sheets>
-    <sheet name="harmdependence-original" sheetId="1" r:id="rId1"/>
+    <sheet name="harmdependence-full" sheetId="1" r:id="rId1"/>
     <sheet name="UK - Classifaction" sheetId="3" r:id="rId2"/>
     <sheet name="US - Classification" sheetId="5" r:id="rId3"/>
     <sheet name="US - Schedule Definition" sheetId="6" r:id="rId4"/>
     <sheet name="ACMD Risk Assessment" sheetId="4" r:id="rId5"/>
-    <sheet name="Sources" sheetId="2" r:id="rId6"/>
+    <sheet name="Harm Classifications" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="Sources" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'UK - Classifaction'!$A$1:$D$2</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
   <si>
     <t>Drug</t>
   </si>
@@ -149,9 +151,6 @@
     <t>Khat</t>
   </si>
   <si>
-    <t>Alkyl nitrites</t>
-  </si>
-  <si>
     <t>Sheetname</t>
   </si>
   <si>
@@ -342,6 +341,36 @@
   </si>
   <si>
     <t>Max Posession Fine (Varies on state + specific drug)</t>
+  </si>
+  <si>
+    <t>UK-Classification</t>
+  </si>
+  <si>
+    <t>US-Schedule</t>
+  </si>
+  <si>
+    <t>UK-Classification: https://www.aleretoxicology.co.uk/en/home/support/drug-classifications.html  US-Schedule: https://www.dea.gov/drug-scheduling</t>
+  </si>
+  <si>
+    <t>Unscheduled</t>
+  </si>
+  <si>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Poppers</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Harm to Individual</t>
+  </si>
+  <si>
+    <t>Social</t>
   </si>
 </sst>
 </file>
@@ -704,76 +733,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E02C98E-517B-4F19-AE72-A4E53631781C}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:E39"/>
+      <selection activeCell="R21" sqref="A1:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>5.78</v>
-      </c>
-      <c r="C2">
-        <v>2.78</v>
-      </c>
-      <c r="D2">
-        <v>2.8</v>
       </c>
       <c r="E2">
         <v>2.78</v>
@@ -782,13 +824,13 @@
         <v>2.8</v>
       </c>
       <c r="G2">
+        <v>2.78</v>
+      </c>
+      <c r="H2">
+        <v>2.8</v>
+      </c>
+      <c r="I2">
         <v>2.5</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -800,30 +842,36 @@
         <v>3</v>
       </c>
       <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
         <v>2.54</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>1.6</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>4.72</v>
-      </c>
-      <c r="C3">
-        <v>2.33</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
       </c>
       <c r="E3">
         <v>2.33</v>
@@ -832,48 +880,54 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>2.39</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3">
+        <v>2.39</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
         <v>2.8</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>1.3</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>2.17</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>1.8</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>2.5</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>4.24</v>
-      </c>
-      <c r="C4">
-        <v>2.23</v>
-      </c>
-      <c r="D4">
-        <v>2.2999999999999998</v>
       </c>
       <c r="E4">
         <v>2.23</v>
@@ -882,198 +936,222 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G4">
+        <v>2.23</v>
+      </c>
+      <c r="H4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I4">
         <v>1.9</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>2.5</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>1.8</v>
       </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
         <v>2.4</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>1.9</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5">
         <v>4.1100000000000003</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>1.9</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>1.9</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>1.24</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.9</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>2.9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>2.21</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>2.6</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>1.8</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>1.42</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>0.8</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>2.4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6">
         <v>4.08</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>2.15</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2.15</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>1.4</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.9</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>2.4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1.93</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>1.9</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>1.6</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>2.21</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>2.4</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>3.94</v>
-      </c>
-      <c r="C7">
-        <v>1.86</v>
-      </c>
-      <c r="D7">
-        <v>1.7</v>
       </c>
       <c r="E7">
         <v>1.86</v>
       </c>
       <c r="F7">
+        <v>1.7</v>
+      </c>
+      <c r="G7">
+        <v>1.86</v>
+      </c>
+      <c r="H7">
         <v>2.5</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>1.7</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>1.4</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>2.08</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>1.8</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>1.87</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>1.6</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>1.9</v>
       </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>3.54</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2.1</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1082,683 +1160,767 @@
         <v>2.1</v>
       </c>
       <c r="G8">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>2.1</v>
       </c>
       <c r="I8">
+        <v>1.7</v>
+      </c>
+      <c r="J8">
+        <v>2.1</v>
+      </c>
+      <c r="K8">
         <v>1.54</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>1.9</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>1.7</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>1</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>1.69</v>
       </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
         <v>1.5</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>3.48</v>
-      </c>
-      <c r="C9">
-        <v>1.81</v>
-      </c>
-      <c r="D9">
-        <v>1.8</v>
       </c>
       <c r="E9">
         <v>1.81</v>
       </c>
       <c r="F9">
+        <v>1.8</v>
+      </c>
+      <c r="G9">
+        <v>1.81</v>
+      </c>
+      <c r="H9">
         <v>1.3</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1.8</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>2.4</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>1.67</v>
       </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
         <v>1.9</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="M9">
-        <v>1.5</v>
-      </c>
-      <c r="N9">
-        <v>1.4</v>
       </c>
       <c r="O9">
         <v>1.5</v>
       </c>
       <c r="P9">
+        <v>1.4</v>
+      </c>
+      <c r="Q9">
+        <v>1.5</v>
+      </c>
+      <c r="R9">
         <v>1.6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
         <v>3.46</v>
-      </c>
-      <c r="C10">
-        <v>1.63</v>
-      </c>
-      <c r="D10">
-        <v>1.7</v>
       </c>
       <c r="E10">
         <v>1.63</v>
       </c>
       <c r="F10">
+        <v>1.7</v>
+      </c>
+      <c r="G10">
+        <v>1.63</v>
+      </c>
+      <c r="H10">
         <v>1.5</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>1.7</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>1.8</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>1.83</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>1.7</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>2.1</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>1.8</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>1.65</v>
       </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
         <v>1.5</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>3.45</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>2.15</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2.15</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>1.44</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>2.1</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>1.3</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>1</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>1.7</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.8</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>1.06</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>1.2</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>1</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
         <v>3.24</v>
-      </c>
-      <c r="C12">
-        <v>1.6</v>
-      </c>
-      <c r="D12">
-        <v>1.3</v>
       </c>
       <c r="E12">
         <v>1.6</v>
       </c>
       <c r="F12">
+        <v>1.3</v>
+      </c>
+      <c r="G12">
+        <v>1.6</v>
+      </c>
+      <c r="H12">
         <v>1.2</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>1.3</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>1.64</v>
       </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
         <v>1.5</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>1.5</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>1.49</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>1.6</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>1.5</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>3.01</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>1.5</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>1.5</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.99</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>0.9</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>2.1</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>20</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>1.51</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>1.9</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>1.7</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>0.8</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>1.5</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>1.7</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>1.3</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14">
         <v>2.91</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>1.9</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>1.9</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>1.28</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>2.1</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>1.7</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>20</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>1.01</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>1.7</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>1.2</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>0.1</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>1.52</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>1.9</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>1.5</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>2.73</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>1.6</v>
-      </c>
-      <c r="D15">
-        <v>1.6</v>
-      </c>
-      <c r="E15">
-        <v>1.05</v>
       </c>
       <c r="F15">
         <v>1.6</v>
       </c>
       <c r="G15">
+        <v>1.05</v>
+      </c>
+      <c r="H15">
         <v>1.6</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15">
+        <v>1.6</v>
+      </c>
+      <c r="J15" t="s">
         <v>20</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>1.5</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>1.2</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>0.7</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>1.2</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>1</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>2.57</v>
-      </c>
-      <c r="C16">
-        <v>1.32</v>
-      </c>
-      <c r="D16">
-        <v>1.3</v>
       </c>
       <c r="E16">
         <v>1.32</v>
       </c>
       <c r="F16">
+        <v>1.3</v>
+      </c>
+      <c r="G16">
+        <v>1.32</v>
+      </c>
+      <c r="H16">
         <v>1.2</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>1.3</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>1.6</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>1.25</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>1.4</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>1.3</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>1</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>0.97</v>
-      </c>
-      <c r="N16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.8</v>
       </c>
       <c r="P16">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>0.8</v>
+      </c>
+      <c r="R16">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>1.3</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>1.3</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>0.86</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>1.4</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>1.2</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>20</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>1.19</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>1.4</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="M17">
-        <v>1.3</v>
-      </c>
-      <c r="N17">
-        <v>1.4</v>
       </c>
       <c r="O17">
         <v>1.3</v>
       </c>
       <c r="P17">
+        <v>1.4</v>
+      </c>
+      <c r="Q17">
+        <v>1.3</v>
+      </c>
+      <c r="R17">
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>2.36</v>
-      </c>
-      <c r="C18">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="D18">
-        <v>1.4</v>
       </c>
       <c r="E18">
         <v>1.1299999999999999</v>
       </c>
       <c r="F18">
+        <v>1.4</v>
+      </c>
+      <c r="G18">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H18">
         <v>1.7</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>1.4</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>0.3</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>1.23</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>0.3</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>1.32</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>1.6</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>1.3</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
         <v>2.33</v>
-      </c>
-      <c r="C19">
-        <v>1.45</v>
-      </c>
-      <c r="D19">
-        <v>1.7</v>
       </c>
       <c r="E19">
         <v>1.45</v>
       </c>
       <c r="F19">
+        <v>1.7</v>
+      </c>
+      <c r="G19">
+        <v>1.45</v>
+      </c>
+      <c r="H19">
         <v>0.8</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
         <v>1.7</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.88</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>0.8</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>0.8</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>1.1299999999999999</v>
-      </c>
-      <c r="N19">
-        <v>1.3</v>
-      </c>
-      <c r="O19">
-        <v>0.8</v>
       </c>
       <c r="P19">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>0.8</v>
+      </c>
+      <c r="R19">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>1.79</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>0.75</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>0.75</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>0.5</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>0.3</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>1.2</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>20</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>1.04</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>1.6</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>1.2</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>0.3</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>0.85</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>0.7</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21">
         <v>1.77</v>
-      </c>
-      <c r="C21">
-        <v>0.93</v>
-      </c>
-      <c r="D21">
-        <v>0.9</v>
       </c>
       <c r="E21">
         <v>0.93</v>
       </c>
       <c r="F21">
+        <v>0.9</v>
+      </c>
+      <c r="G21">
+        <v>0.93</v>
+      </c>
+      <c r="H21">
         <v>1.6</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>0.9</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>0.3</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>0.87</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>1.6</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>0.7</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>0.3</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>0.97</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>0.8</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>0.7</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>1.4</v>
       </c>
     </row>
@@ -1772,7 +1934,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:D18"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,21 +1947,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1808,12 +1970,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -1822,71 +1984,71 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1897,10 +2059,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1911,10 +2073,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1925,10 +2087,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1939,7 +2101,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
@@ -1953,10 +2115,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1967,10 +2129,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1981,10 +2143,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1995,10 +2157,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -2009,10 +2171,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2023,10 +2185,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -2056,10 +2218,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2083,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2091,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2099,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2107,7 +2269,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2115,15 +2277,15 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2131,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2147,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2155,7 +2317,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2163,7 +2325,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2171,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2179,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2187,7 +2349,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2199,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D19DEC-7DA9-4C39-B4B4-05916708793C}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,16 +2373,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
       <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
         <v>99</v>
-      </c>
-      <c r="D1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2228,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2236,7 +2398,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2244,7 +2406,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2252,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2260,7 +2422,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2274,7 +2436,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,63 +2448,63 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
         <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -2350,18 +2512,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
         <v>76</v>
-      </c>
-      <c r="B9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2370,11 +2532,125 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD390FB4-3463-4ED4-81EB-C068836EFC8D}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D98D4F5-3527-43F0-94E5-F2AF10609272}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388EE78A-827C-4E56-8D95-43377AAC4C1E}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,79 +2660,82 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
+      <c r="D2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
         <v>91</v>
       </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
